--- a/Bug Reports/Bug reports (https___exe.ua_).xlsx
+++ b/Bug Reports/Bug reports (https___exe.ua_).xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26619"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Стас\Навчання\Bug Reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59202A8-26F0-4245-A464-9B774C548D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Аркуш1" sheetId="1" r:id="rId4"/>
+    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -41,65 +50,70 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Відкрити сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://exe.ua/</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Відкрити сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://exe.ua/</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Відкрити сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://exe.ua/</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Відкрити сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://exe.ua/</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Відкрити сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://exe.ua/</t>
     </r>
@@ -150,9 +164,6 @@
     <t>Кнопки "телефон, час роботи, контакти" повинні бути відокремленні один від одного</t>
   </si>
   <si>
-    <t>Заголовки сайту повинні вирівнятись по одній ширині</t>
-  </si>
-  <si>
     <t>Назви товарів повинні бути коректними</t>
   </si>
   <si>
@@ -165,9 +176,6 @@
     <t>Злипаються кнопки "телефон, час роботи, контакти"</t>
   </si>
   <si>
-    <t>Зміщенні заголовки в хедері сайту</t>
-  </si>
-  <si>
     <t>Невірне найменування товарів</t>
   </si>
   <si>
@@ -208,38 +216,56 @@
   </si>
   <si>
     <t>Attachment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Зміщенні заголовки в хедері сайту</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Заголовки сайту повинні вирівнятись по одній ширині</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF9AA0A6"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -248,7 +274,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -258,61 +284,78 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>26842</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6543675" cy="4152900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Зображення"/>
+        <xdr:cNvPr id="2" name="image4.png" title="Зображення">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1012248" y="4391024"/>
+          <a:ext cx="6543675" cy="4152900"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -324,79 +367,33 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>-9525</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>232930</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>59747</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6543675" cy="4657725"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Зображення"/>
+        <xdr:cNvPr id="3" name="image7.png" title="Зображення">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6553200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5343525" cy="2990850"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Зображення"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6553200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5343525" cy="2990850"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Зображення"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1064203" y="8995929"/>
+          <a:ext cx="6543675" cy="4657725"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -408,23 +405,33 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5343525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>175597</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25534</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5257800" cy="2066925"/>
+    <xdr:ext cx="5343525" cy="2990850"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Зображення"/>
+        <xdr:cNvPr id="4" name="image2.png" title="Зображення">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7968779" y="4389716"/>
+          <a:ext cx="5343525" cy="2990850"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -435,24 +442,72 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>18383250</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>159958</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>199674</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5210175" cy="1257300"/>
+    <xdr:ext cx="5343525" cy="2990850"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Зображення"/>
+        <xdr:cNvPr id="5" name="image3.png" title="Зображення">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953140" y="7681129"/>
+          <a:ext cx="5343525" cy="2990850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120281</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>42853</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5696592" cy="2066925"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="image1.png" title="Зображення">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13559190" y="4407035"/>
+          <a:ext cx="5696592" cy="2066925"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -464,23 +519,71 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5210175</xdr:colOff>
+      <xdr:colOff>80550</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>-190500</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7067550" cy="8648700"/>
+    <xdr:ext cx="5210175" cy="1257300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Зображення"/>
+        <xdr:cNvPr id="7" name="image6.png" title="Зображення">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19442277" y="4373707"/>
+          <a:ext cx="5210175" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>90104</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>183370</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7067550" cy="8648700"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="image5.png" title="Зображення">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24959013" y="4339734"/>
+          <a:ext cx="7067550" cy="8648700"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -493,7 +596,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -683,56 +786,59 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="C2" sqref="C2" pane="topRight"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="86.0"/>
-    <col customWidth="1" min="3" max="3" width="70.13"/>
-    <col customWidth="1" min="4" max="4" width="85.5"/>
-    <col customWidth="1" min="5" max="5" width="68.38"/>
-    <col customWidth="1" min="6" max="6" width="93.0"/>
+    <col min="2" max="2" width="104.28515625" customWidth="1"/>
+    <col min="3" max="3" width="84.7109375" customWidth="1"/>
+    <col min="4" max="4" width="88.85546875" customWidth="1"/>
+    <col min="5" max="5" width="82.5703125" customWidth="1"/>
+    <col min="6" max="6" width="111.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -752,7 +858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -772,12 +878,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -797,7 +903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
@@ -808,7 +914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
@@ -819,7 +925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -833,140 +939,140 @@
         <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="4" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F18" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E23" s="6"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E31" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B4"/>
-    <hyperlink r:id="rId2" ref="C4"/>
-    <hyperlink r:id="rId3" ref="D4"/>
-    <hyperlink r:id="rId4" ref="E4"/>
-    <hyperlink r:id="rId5" ref="F4"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
   <drawing r:id="rId6"/>
 </worksheet>
 </file>